--- a/database/sidis/expdata/3703.xlsx
+++ b/database/sidis/expdata/3703.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Desktop/Research Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05083F20-868C-BC49-8E61-D703F92EA613}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF14BBCE-505D-B642-A956-F8319A020AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="6060" windowWidth="28040" windowHeight="16460" xr2:uid="{3C8A5BCA-6FE1-9A40-9C71-75E877819234}"/>
+    <workbookView xWindow="520" yWindow="4460" windowWidth="28040" windowHeight="16460" xr2:uid="{3C8A5BCA-6FE1-9A40-9C71-75E877819234}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>Q2</t>
   </si>
@@ -82,13 +82,16 @@
   </si>
   <si>
     <t>xmax</t>
+  </si>
+  <si>
+    <t>depol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -444,15 +447,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369FD817-B88C-5448-853E-D1C8CD081389}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="P2" sqref="P2:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,8 +501,11 @@
       <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.3</v>
       </c>
@@ -545,8 +551,11 @@
       <c r="O2">
         <v>4.5999999999999999E-2</v>
       </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.72</v>
       </c>
@@ -592,8 +601,11 @@
       <c r="O3">
         <v>6.7000000000000004E-2</v>
       </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.14</v>
       </c>
@@ -639,8 +651,11 @@
       <c r="O4">
         <v>8.2000000000000003E-2</v>
       </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.58</v>
       </c>
@@ -686,8 +701,11 @@
       <c r="O5">
         <v>0.105</v>
       </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3.19</v>
       </c>
@@ -733,8 +751,11 @@
       <c r="O6">
         <v>0.13400000000000001</v>
       </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4.0999999999999996</v>
       </c>
@@ -780,8 +801,11 @@
       <c r="O7">
         <v>0.186</v>
       </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6.14</v>
       </c>
@@ -826,6 +850,9 @@
       </c>
       <c r="O8">
         <v>0.6</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
